--- a/day01/data/sample_1.xlsx
+++ b/day01/data/sample_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangwook\private_sw\proj_py\datasalon-master\1_파이썬설치&amp;기본문법\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\소스\bigdata-analysis-2024\day01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F360C5-2724-47FE-B5E5-9B1ECB84B2AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBBFA09-3A08-4B0A-8BAB-35F5064818C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24650" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -548,12 +548,12 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.08203125" customWidth="1"/>
+    <col min="1" max="3" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -561,7 +561,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -589,7 +589,7 @@
         <v>85815</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -603,7 +603,7 @@
         <v>125241</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -617,7 +617,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -631,7 +631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -645,7 +645,7 @@
         <v>124486</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -659,7 +659,7 @@
         <v>163466</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -670,7 +670,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
